--- a/data/income_statement/3digits/total/245_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/245_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>245-Casting of metals</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>245-Casting of metals</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>2138163.47176</v>
@@ -962,31 +868,36 @@
         <v>4406013.78084</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>5008301.40396</v>
+        <v>5016638.59343</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5556211.34773</v>
+        <v>5557632.367400001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5126078.759559999</v>
+        <v>6061318.633599999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6409792.06546</v>
+        <v>6409812.75817</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>8857416.239499999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12532298.90346</v>
+        <v>12533384.39206</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>13223746.54228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13304914.92688</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>16177265.12</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1271538.70575</v>
@@ -1001,34 +912,39 @@
         <v>2559033.73777</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2954751.14621</v>
+        <v>2962571.8386</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3077242.24883</v>
+        <v>3078609.5633</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3270737.08417</v>
+        <v>3529013.82882</v>
       </c>
       <c r="J6" s="48" t="n">
         <v>3852812.45703</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5228583.9602</v>
+        <v>5228583.960200001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6723133.08692</v>
+        <v>6724087.79452</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7048512.94278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7117524.443259999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>9102328.177999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>835932.0448599999</v>
+        <v>835932.0448600001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>1123226.14309</v>
@@ -1040,37 +956,42 @@
         <v>1779877.65475</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1984467.31826</v>
+        <v>1984633.27195</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2393682.16168</v>
+        <v>2393734.06688</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1814309.44289</v>
+        <v>2426921.16258</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2469281.8074</v>
+        <v>2469297.52511</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3519480.29058</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5625240.71955</v>
+        <v>5625240.719550001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5991212.370589999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6002554.8702</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6833079.442</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>30692.72115</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>46478.45407</v>
+        <v>46478.45407000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>69559.443</v>
@@ -1079,31 +1000,36 @@
         <v>67102.38832</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>69082.93948999999</v>
+        <v>69433.48288</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>85286.93721999999</v>
+        <v>85288.73722</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>41032.2325</v>
+        <v>105383.6422</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>87697.80103</v>
+        <v>87702.77603000001</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>109351.98872</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>183925.09699</v>
+        <v>184055.87799</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>184021.22891</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>184835.61342</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>241857.5</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>62176.58022</v>
@@ -1121,10 +1047,10 @@
         <v>122588.24671</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>154160.61377</v>
+        <v>154216.26617</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>111529.80112</v>
+        <v>161156.85806</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>179047.4409</v>
@@ -1136,13 +1062,18 @@
         <v>271597.6184100001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>259758.60667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>261686.89597</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>378235.374</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>28533.71611</v>
@@ -1151,37 +1082,42 @@
         <v>33792.74601</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>46410.10351000001</v>
+        <v>46410.10351</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>54203.61047999999</v>
+        <v>54203.61048</v>
       </c>
       <c r="G10" s="48" t="n">
         <v>53454.99906</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>68590.69937999999</v>
+        <v>68646.35178</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>53435.05015</v>
+        <v>71665.89630000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>89952.75241</v>
+        <v>89952.75241000002</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>94547.81728999999</v>
+        <v>94547.81729000001</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>132586.70947</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>134158.1254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>136044.52873</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>212306.444</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>9556.8264</v>
@@ -1202,7 +1138,7 @@
         <v>31316.80109</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31622.12868</v>
+        <v>37998.08471</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>44578.63535</v>
@@ -1214,34 +1150,39 @@
         <v>58278.95251</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>57683.18909000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>57725.07506</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>91933.13499999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>24086.03771</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>31133.35259999999</v>
+        <v>31133.3526</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>42096.46627</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>45092.79292000001</v>
+        <v>45092.79292</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>40376.46334</v>
+        <v>40376.46333999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>54253.1133</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>26472.62229</v>
+        <v>51492.87705</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>44516.05314</v>
@@ -1253,13 +1194,18 @@
         <v>80731.95643000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>67917.29217999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>67917.29218</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>73995.795</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>2075986.89154</v>
@@ -1274,31 +1220,36 @@
         <v>4281952.387610001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4885713.15725</v>
+        <v>4894050.346720001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>5402050.73396</v>
+        <v>5403416.101229999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5014548.95844</v>
+        <v>5900161.77554</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6230744.62456</v>
+        <v>6230765.31727</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8655233.611330001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>12260701.28505</v>
+        <v>12261786.77365</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12963987.93561</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13043228.03091</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15799029.746</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1699378.53582</v>
@@ -1313,31 +1264,36 @@
         <v>3666804.62926</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>4093768.48223</v>
+        <v>4110004.38415</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>4513810.25796</v>
+        <v>4514518.02635</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4186512.14349</v>
+        <v>4905523.824899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5181048.02996</v>
+        <v>5181105.67573</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>7049882.882009999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>9723084.960520001</v>
+        <v>9724270.336229999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10596133.1766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10666147.31991</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>12328791.746</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1529071.56878</v>
@@ -1355,28 +1311,33 @@
         <v>3396644.69937</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4009416.45568</v>
+        <v>4010124.22407</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3663331.15756</v>
+        <v>4312034.93803</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4587576.82911</v>
+        <v>4587576.829109999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6242070.75424</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8724652.961199999</v>
+        <v>8725811.419370001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9533430.0984</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9590512.355349999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11106098.116</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>126523.5089</v>
@@ -1391,31 +1352,36 @@
         <v>309922.46998</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>632699.9795200001</v>
+        <v>632699.9795199999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>392618.5948500001</v>
+        <v>392618.5948499999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>446540.12073</v>
+        <v>470673.15201</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>474633.8267100001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>709308.0935900001</v>
+        <v>709308.0935899999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>872176.5825499999</v>
+        <v>872176.5835500001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>899447.40916</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>911742.19629</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1051797.595</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>28918.32103</v>
@@ -1430,31 +1396,36 @@
         <v>34070.21431</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>23245.29063</v>
+        <v>39481.19255000001</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>52946.77488</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>62803.53391</v>
+        <v>62803.53391000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>84906.02234000001</v>
+        <v>84906.02234</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>51900.28648</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>65446.02948</v>
+        <v>65472.94602</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>79683.51441000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>80073.57364</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>85872.00999999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14865.13711</v>
@@ -1475,25 +1446,30 @@
         <v>58828.43255</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>13837.33129</v>
+        <v>60012.20094999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>33931.3518</v>
+        <v>33988.99757</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>46603.7477</v>
+        <v>46603.74769999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>60809.38729</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>83572.15462999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>83819.19463</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>85024.02499999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>376608.35572</v>
@@ -1505,34 +1481,39 @@
         <v>815754.2417799999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>615147.7583499999</v>
+        <v>615147.75835</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>791944.67502</v>
+        <v>784045.96257</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>888240.476</v>
+        <v>888898.0748799999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>828036.8149499998</v>
+        <v>994637.9506399999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1049696.5946</v>
+        <v>1049659.64154</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1605350.72932</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2537616.32453</v>
+        <v>2537516.43742</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2367854.75901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2377080.711</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3470238</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>240056.7491</v>
@@ -1541,37 +1522,42 @@
         <v>273245.93129</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>368594.0168</v>
+        <v>368594.0167999999</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>408283.54772</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>449543.3024700001</v>
+        <v>453119.5925</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>556481.22173</v>
+        <v>556676.8668900001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>455528.69044</v>
+        <v>553466.91549</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>628139.51102</v>
+        <v>628149.3471</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1011254.31379</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>912874.8494100001</v>
+        <v>913273.8975099999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1088033.06511</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1094939.66136</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1221517.243</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2709.93462</v>
@@ -1586,13 +1572,13 @@
         <v>5736.050230000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5406.402450000001</v>
+        <v>5406.40245</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>6380.85485</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3295.32992</v>
+        <v>7468.83386</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>7939.39276</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>15035.58665</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>18080.32</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>68502.97434</v>
@@ -1628,28 +1619,33 @@
         <v>143422.77308</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>174660.50584</v>
+        <v>174680.24634</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>137955.73837</v>
+        <v>184960.63766</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>205700.4786</v>
+        <v>205701.46662</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>228676.52253</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>320839.7973100001</v>
+        <v>320873.93622</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>370199.54191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>371930.98033</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>419884.226</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>168843.84014</v>
@@ -1664,31 +1660,36 @@
         <v>266514.09211</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>300714.12694</v>
+        <v>304290.41697</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>375439.86104</v>
+        <v>375615.7657</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>314277.62215</v>
+        <v>361037.44397</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>414499.63966</v>
+        <v>414508.48772</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>774991.9097399999</v>
+        <v>774991.9097400001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>584028.3638700001</v>
+        <v>584393.2730599999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>702797.93655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>707973.09438</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>783552.697</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>136551.60662</v>
@@ -1697,37 +1698,42 @@
         <v>192732.49649</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>447160.2249799999</v>
+        <v>447160.22498</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>206864.21063</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>342401.37255</v>
+        <v>330926.37007</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>331759.25427</v>
+        <v>332221.20799</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>372508.12451</v>
+        <v>441171.03515</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>421557.0835799999</v>
+        <v>421510.2944400001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>594096.41553</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1624741.47512</v>
+        <v>1624242.53991</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1279821.6939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1282141.04964</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2248720.757</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>93837.38949</v>
@@ -1742,52 +1748,57 @@
         <v>169693.22513</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>246088.75468</v>
+        <v>252972.80382</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>181651.57757</v>
+        <v>181691.68495</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>248262.17958</v>
+        <v>321694.32459</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>359169.3936899999</v>
+        <v>359169.3936900001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>455276.57171</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1101549.45786</v>
+        <v>1101551.52366</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>630788.9082000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>635504.24762</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1165014.095</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5040.535</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>9635.07987</v>
+        <v>9635.079870000001</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>8298.82042</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4229.34519</v>
+        <v>4229.345189999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>485.68135</v>
+        <v>4488.52902</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>29087.63207</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6088.67101</v>
+        <v>6163.97101</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>12638.91384</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>26.65007</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>388.45</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1473.37847</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>16018.63969</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16998.96026</v>
@@ -1859,13 +1880,13 @@
         <v>33903.33383</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>33665.58458</v>
+        <v>34936.35304</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>37188.97515999999</v>
+        <v>37227.59317</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18737.31139</v>
+        <v>39095.13512</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>43473.37328</v>
@@ -1877,13 +1898,18 @@
         <v>50613.90364</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>53073.27177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>53685.81389</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>42931.991</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>88.41251</v>
@@ -1901,7 +1927,7 @@
         <v>55.79796</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9.13734</v>
+        <v>10.62671</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>30.15688</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>640.59182</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>606.644</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2309.95351</v>
@@ -1934,7 +1965,7 @@
         <v>1546.08464</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>7202.857889999999</v>
+        <v>7202.85789</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>3049.28588</v>
@@ -1943,7 +1974,7 @@
         <v>1616.12945</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4283.989729999999</v>
+        <v>4283.98973</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>2865.9281</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>7655.087439999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2406.237</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>679.8960900000001</v>
+        <v>679.89609</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>463.72207</v>
@@ -1973,7 +2009,7 @@
         <v>2173.31701</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5992.171080000001</v>
+        <v>5992.171079999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>285.93192</v>
@@ -1982,10 +2018,10 @@
         <v>734.65111</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11920.74113</v>
+        <v>11922.06028</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>39486.97188999999</v>
+        <v>39486.97189</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1351.34531</v>
@@ -1994,13 +2030,18 @@
         <v>1180.37056</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>1244.75029</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1274.70819</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>10370.332</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>54642.89929</v>
@@ -2015,31 +2056,36 @@
         <v>97258.38602999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>192580.93511</v>
+        <v>194166.51926</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>88300.59222999999</v>
+        <v>88300.59223000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>180016.9323</v>
+        <v>230466.28795</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>228912.95039</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>338475.9510300001</v>
+        <v>338475.95103</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>974942.57593</v>
+        <v>974942.59191</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>488433.6191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>489089.59792</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1032997.368</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>83.72949</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1158.63483</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>289.545</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>6.2248</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>19.10702</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12513.40007</v>
@@ -2132,13 +2188,13 @@
         <v>16838.17582</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>14136.78819</v>
+        <v>14161.63705</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>18244.98695</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>20557.37999</v>
+        <v>23105.72647</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>29948.41635</v>
@@ -2147,22 +2203,27 @@
         <v>43937.79249</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>61059.67708</v>
+        <v>61061.7269</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>62518.55617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>65935.41675</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>74995.68799999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>61456.86646</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>71948.87881000001</v>
+        <v>71948.87880999999</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>119990.69121</v>
@@ -2171,13 +2232,13 @@
         <v>108014.70171</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>189859.8973</v>
+        <v>190600.70854</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>136680.3925</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>230543.81801</v>
+        <v>261481.40327</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>235821.47104</v>
@@ -2186,22 +2247,27 @@
         <v>450039.27639</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1130602.17527</v>
+        <v>1130603.36749</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>495317.23717</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>497296.02249</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1022777.029</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>563.2825899999999</v>
+        <v>563.28259</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>749.14933</v>
+        <v>749.1493300000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>869.92696</v>
@@ -2213,28 +2279,33 @@
         <v>1076.05607</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2837.28745</v>
+        <v>2837.287450000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1967.18374</v>
+        <v>1976.13844</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3526.70765</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4335.34422</v>
+        <v>4335.344220000001</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>7463.35392</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11548.68057</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11549.5907</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9500.564</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>7254.36343</v>
@@ -2255,13 +2326,13 @@
         <v>18034.81362</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>3725.65458</v>
+        <v>12058.09501</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>22534.21968</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7058.8423</v>
+        <v>7058.842300000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>33018.39598</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>12426.28113</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>41403.054</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>339.73725</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>421.91212</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2023.831</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>48558.32428</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>55617.84956</v>
+        <v>55617.84956000001</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>95818.22822</v>
@@ -2327,13 +2408,13 @@
         <v>79316.78695000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>153629.58238</v>
+        <v>154195.51187</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>105088.90014</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>208416.5214</v>
+        <v>230986.66209</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>199887.32267</v>
@@ -2342,16 +2423,21 @@
         <v>425682.66287</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1059526.33569</v>
+        <v>1059526.33934</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>457499.12087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>459461.7110599999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>947435.885</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>52.38652</v>
@@ -2378,7 +2464,7 @@
         <v>204.68163</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>282.66902</v>
+        <v>282.6690199999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>803.3709</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1558.19177</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>143.781</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>1.02427</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>4688.772390000001</v>
@@ -2441,34 +2537,39 @@
         <v>10378.56519</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>5320.32431</v>
+        <v>5320.324310000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4369.66071</v>
+        <v>4544.54246</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>3764.46516</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16148.80023</v>
+        <v>16174.84967</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>4750.45217</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8122.224249999999</v>
+        <v>8122.22425</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>22026.77576</v>
+        <v>22027.96433</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11862.02644</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11877.31144</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22269.913</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>78749.28720000001</v>
@@ -2483,13 +2584,13 @@
         <v>126615.99655</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>247247.45154</v>
+        <v>249954.59028</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>137457.46394</v>
+        <v>137494.66216</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>194114.1582</v>
+        <v>303695.48504</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>373844.13329</v>
@@ -2501,16 +2602,21 @@
         <v>877481.0735000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>568626.62419</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>572225.97789</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>982358.875</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>68923.23754</v>
+        <v>68923.23753999999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>69863.79776999999</v>
@@ -2522,13 +2628,13 @@
         <v>116846.97358</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>221865.24002</v>
+        <v>224572.37876</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>131349.33048</v>
+        <v>131386.5287</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>170311.85175</v>
+        <v>279845.87992</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>328994.6624</v>
@@ -2540,19 +2646,24 @@
         <v>720220.4316099999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>501041.2597999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>504584.13283</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>871508.156</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9826.049660000002</v>
+        <v>9826.049659999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8498.477369999999</v>
+        <v>8498.477370000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>28115.01752</v>
@@ -2567,25 +2678,30 @@
         <v>6108.133459999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>23802.30645</v>
+        <v>23849.60512</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>44849.47089000001</v>
+        <v>44849.47088999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>75429.59500000002</v>
+        <v>75429.595</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>157260.64189</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>67585.36439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>67641.84506000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>110850.719</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>90182.84245</v>
@@ -2600,31 +2716,36 @@
         <v>141926.7375</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>151382.77839</v>
+        <v>143343.87507</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>239272.9754</v>
+        <v>239737.83828</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>196112.32788</v>
+        <v>197688.47143</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>171060.87294</v>
+        <v>171014.0838</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>112006.12525</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>718207.6842100001</v>
+        <v>717709.6225800001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>846666.74074</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>848123.29688</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1408598.948</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>17101.94942</v>
@@ -2639,31 +2760,36 @@
         <v>23181.20468</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>27853.04181</v>
+        <v>28070.45838</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>71064.59603999999</v>
+        <v>71068.98882</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>45133.93268999999</v>
+        <v>55111.52738</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>48997.10556</v>
+        <v>49025.19252</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>78505.64393999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>80358.32466</v>
+        <v>80388.97939000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>71346.33612000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>71603.5162</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>132060.888</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2370.73514</v>
@@ -2678,19 +2804,19 @@
         <v>393.2179</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1735.1915</v>
+        <v>1952.60807</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3967.757100000001</v>
+        <v>3968.51776</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>605.03291</v>
+        <v>4165.21435</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>667.96764</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3482.909640000001</v>
+        <v>3482.90964</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>6312.86184</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1756.19968</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3061.562</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>14731.21428</v>
@@ -2720,28 +2851,33 @@
         <v>26117.85031</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>67096.83894</v>
+        <v>67100.47106</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>44528.89978</v>
+        <v>50946.31303</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>48329.13792</v>
+        <v>48357.22487999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>75022.7343</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>74045.46281999999</v>
+        <v>74076.11755</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>69590.13644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69847.31651999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>128999.326</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>48222.2978</v>
@@ -2753,43 +2889,48 @@
         <v>104654.36898</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>35343.77951000001</v>
+        <v>35343.77951</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>41996.91991</v>
+        <v>42171.62805000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>114113.62339</v>
+        <v>114184.07916</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>49122.73845</v>
+        <v>58695.30293</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>90511.35029999999</v>
+        <v>90663.32003999999</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>52231.80276999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>105047.96053</v>
+        <v>105120.52759</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>76271.78831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>76421.40062</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>118701.887</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>20544.76506</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>8141.863459999999</v>
+        <v>8141.86346</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>8063.41283</v>
+        <v>8063.412830000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>8354.494210000001</v>
@@ -2813,13 +2954,18 @@
         <v>21346.56739</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>18452.92612</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>18790.26408</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>40423.899</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>13501.97677</v>
@@ -2834,13 +2980,13 @@
         <v>4407.72108</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8105.03284</v>
+        <v>8279.74098</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5359.033630000001</v>
+        <v>5359.03363</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3019.55338</v>
+        <v>8248.544470000001</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>4332.63062</v>
@@ -2854,20 +3000,25 @@
       <c r="M53" s="48" t="n">
         <v>4091.60633</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>7039.088</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>14175.55597</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>34102.29702000001</v>
+        <v>34102.29702</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>93175.28293</v>
+        <v>93175.28292999999</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>22581.56422</v>
@@ -2876,28 +3027,33 @@
         <v>20341.80115</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>96161.80061000001</v>
+        <v>96232.25637999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>38456.95911</v>
+        <v>42800.5325</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>71396.31031</v>
+        <v>71548.28005000002</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>40066.02402</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>76694.61356</v>
+        <v>76767.18061999998</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>53727.25586</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>53539.53021</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>71238.89999999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>59062.49406999999</v>
@@ -2912,31 +3068,36 @@
         <v>129764.16267</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>137238.90029</v>
+        <v>129242.7054</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>196223.94805</v>
+        <v>196622.74794</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>192123.52212</v>
+        <v>194104.69588</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>129546.6282</v>
+        <v>129375.95628</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>138279.96642</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>693518.04834</v>
+        <v>692978.07438</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>841741.2885499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>843305.4124599999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1421957.949</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>23742.51854</v>
@@ -2945,7 +3106,7 @@
         <v>27283.0932</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>72271.59065000001</v>
+        <v>72271.59065</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>34928.56688000001</v>
@@ -2957,10 +3118,10 @@
         <v>51570.74608</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>47667.31589</v>
+        <v>49493.32789</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>48709.81483</v>
+        <v>48713.8455</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>76308.18497</v>
@@ -2969,19 +3130,24 @@
         <v>133418.87049</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>112083.70297</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>113898.93778</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>205991.857</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>35319.97553</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>96961.65037999999</v>
+        <v>96961.65038000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>188023.96848</v>
@@ -2990,28 +3156,31 @@
         <v>94835.59579000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>97461.31773</v>
+        <v>89465.12284</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>144653.20197</v>
+        <v>145052.00186</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>144456.20623</v>
+        <v>144611.36799</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>80836.81337</v>
+        <v>80662.11077999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>61971.78144999999</v>
+        <v>61971.78145000002</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>560099.17785</v>
+        <v>559559.20389</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>729657.5855800001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>729406.4746800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1215966.092</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>673</v>
@@ -3044,28 +3216,31 @@
         <v>700</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>767</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>730</v>
+        <v>773</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>800</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>